--- a/MS-Office-Tip/excel_textsplit.xlsx
+++ b/MS-Office-Tip/excel_textsplit.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\self_learning\MS-Office-Tip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4C81FB-0BEA-492C-8D74-53EC92100BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BE3E42-02A9-46D3-8BCD-336D443F9784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{52C71667-05A9-4942-84AC-4C57819B1AA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52C71667-05A9-4942-84AC-4C57819B1AA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="PerCol" sheetId="1" r:id="rId1"/>
-    <sheet name="PerRow" sheetId="2" r:id="rId2"/>
-    <sheet name="VarChars" sheetId="3" r:id="rId3"/>
-    <sheet name="Col&amp;Row" sheetId="4" r:id="rId4"/>
-    <sheet name="ignoreCase" sheetId="5" r:id="rId5"/>
+    <sheet name="1 PerCol" sheetId="1" r:id="rId1"/>
+    <sheet name="2 PerRow" sheetId="2" r:id="rId2"/>
+    <sheet name="3 VarChars" sheetId="3" r:id="rId3"/>
+    <sheet name="4 Col&amp;Row" sheetId="4" r:id="rId4"/>
+    <sheet name="5 ignoreEmpty" sheetId="6" r:id="rId5"/>
+    <sheet name="6 ignoreCase" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Jack-123456-male-20</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>splitAtext</t>
+  </si>
+  <si>
+    <t>Red,,Green,,,Purple</t>
   </si>
 </sst>
 </file>
@@ -414,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EF9717-39D2-4F5B-A551-52AC8C53B236}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
@@ -507,10 +511,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAF902-53BD-4AED-A5F2-A51FAD8E843D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="C1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACEE116-72B3-4144-997E-56F742B5B50C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/MS-Office-Tip/excel_textsplit.xlsx
+++ b/MS-Office-Tip/excel_textsplit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\self_learning\MS-Office-Tip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BE3E42-02A9-46D3-8BCD-336D443F9784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71288D31-D49A-44D5-9734-0998980797CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52C71667-05A9-4942-84AC-4C57819B1AA5}"/>
   </bookViews>
@@ -19,6 +19,8 @@
     <sheet name="4 Col&amp;Row" sheetId="4" r:id="rId4"/>
     <sheet name="5 ignoreEmpty" sheetId="6" r:id="rId5"/>
     <sheet name="6 ignoreCase" sheetId="5" r:id="rId6"/>
+    <sheet name="7 matchMode" sheetId="8" r:id="rId7"/>
+    <sheet name="8 padding" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Jack-123456-male-20</t>
   </si>
@@ -65,16 +67,46 @@
   </si>
   <si>
     <t>Red,,Green,,,Purple</t>
+  </si>
+  <si>
+    <t>Red=5,Blue,Green=10</t>
+  </si>
+  <si>
+    <t>Multiply Table</t>
+  </si>
+  <si>
+    <t>1 x 1</t>
+  </si>
+  <si>
+    <t>1 x 2</t>
+  </si>
+  <si>
+    <t>1 x 3</t>
+  </si>
+  <si>
+    <t>1 x 4</t>
+  </si>
+  <si>
+    <t>1 x 5</t>
+  </si>
+  <si>
+    <t>1 x 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
@@ -553,4 +585,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3441862-0F45-4396-A6E3-3B342645CF0C}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF399A8-B399-45E1-9717-4F1852C616D6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MS-Office-Tip/excel_textsplit.xlsx
+++ b/MS-Office-Tip/excel_textsplit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\self_learning\MS-Office-Tip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71288D31-D49A-44D5-9734-0998980797CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1202CD2B-2C42-4C3D-B224-E8B3D1EA519C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52C71667-05A9-4942-84AC-4C57819B1AA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{52C71667-05A9-4942-84AC-4C57819B1AA5}"/>
   </bookViews>
   <sheets>
     <sheet name="1 PerCol" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Jack-123456-male-20</t>
   </si>
@@ -57,9 +79,6 @@
     <t>Scott.45678.male-29</t>
   </si>
   <si>
-    <t>Jack-123456-male-20 | Grace.456-famale.19 | Scott.45678.male-29</t>
-  </si>
-  <si>
     <t>splitatext</t>
   </si>
   <si>
@@ -91,6 +110,15 @@
   </si>
   <si>
     <t>1 x 6</t>
+  </si>
+  <si>
+    <t>number 1</t>
+  </si>
+  <si>
+    <t>number 2</t>
+  </si>
+  <si>
+    <t>Jack-123456-male-20 | Grace.456.famale.19 | Scott.45678.male-29</t>
   </si>
 </sst>
 </file>
@@ -448,15 +476,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EF9717-39D2-4F5B-A551-52AC8C53B236}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:E1">_xlfn.TEXTSPLIT(A1,"-")</f>
+        <v>Jack</v>
+      </c>
+      <c r="C1" t="str">
+        <v>123456</v>
+      </c>
+      <c r="D1" t="str">
+        <v>male</v>
+      </c>
+      <c r="E1" t="str">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -466,15 +512,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B933B5D-D05D-4A07-8CB0-4B8375837DEF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:B4">_xlfn.TEXTSPLIT(A1,,"-")</f>
+        <v>Jack</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="str">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="str">
+        <v>male</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="str">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -484,32 +554,236 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3081E3-662B-4511-9893-EC12176D7EAE}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:E2">_xlfn.TEXTSPLIT(A2,{"-"," ","."})</f>
+        <v>Jack</v>
+      </c>
+      <c r="C2" t="str">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="str">
+        <v>male</v>
+      </c>
+      <c r="E2" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:E3">_xlfn.TEXTSPLIT(A3,{"-"," ","."})</f>
+        <v>Grace</v>
+      </c>
+      <c r="C3" t="str">
+        <v>456</v>
+      </c>
+      <c r="D3" t="str">
+        <v>famale</v>
+      </c>
+      <c r="E3" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4:E4">_xlfn.TEXTSPLIT(A4,{"-"," ","."})</f>
+        <v>Scott</v>
+      </c>
+      <c r="C4" t="str">
+        <v>45678</v>
+      </c>
+      <c r="D4" t="str">
+        <v>male</v>
+      </c>
+      <c r="E4" t="str">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD68A17-CBCC-43C9-A87C-1C6359BE478E}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:E4">_xlfn.TEXTSPLIT(A2,{"-","."}," | ")</f>
+        <v>Jack</v>
+      </c>
+      <c r="C2" t="str">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="str">
+        <v>male</v>
+      </c>
+      <c r="E2" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="str">
+        <v>Grace</v>
+      </c>
+      <c r="C3" t="str">
+        <v>456</v>
+      </c>
+      <c r="D3" t="str">
+        <v>famale</v>
+      </c>
+      <c r="E3" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="str">
+        <v>Scott</v>
+      </c>
+      <c r="C4" t="str">
+        <v>45678</v>
+      </c>
+      <c r="D4" t="str">
+        <v>male</v>
+      </c>
+      <c r="E4" t="str">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAF902-53BD-4AED-A5F2-A51FAD8E843D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:G1">_xlfn.TEXTSPLIT(A1,",")</f>
+        <v>Red</v>
+      </c>
+      <c r="C1" t="str">
+        <v/>
+      </c>
+      <c r="D1" t="str">
+        <v>Green</v>
+      </c>
+      <c r="E1" t="str">
+        <v/>
+      </c>
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v>Purple</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:D2">_xlfn.TEXTSPLIT(A1,",",,TRUE)</f>
+        <v>Red</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Green</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Purple</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACEE116-72B3-4144-997E-56F742B5B50C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:C1">_xlfn.TEXTSPLIT(A1,"a",,,1)</f>
+        <v>split</v>
+      </c>
+      <c r="C1" t="str">
+        <v>text</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:C2">_xlfn.TEXTSPLIT(A2,"a",,,1)</f>
+        <v>split</v>
+      </c>
+      <c r="C2" t="str">
+        <v>text</v>
       </c>
     </row>
   </sheetData>
@@ -517,119 +791,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD68A17-CBCC-43C9-A87C-1C6359BE478E}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3441862-0F45-4396-A6E3-3B342645CF0C}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:C2">_xlfn.TEXTSPLIT(A2," x ")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="C2" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:C3">_xlfn.TEXTSPLIT(A3," x ")</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4:C4">_xlfn.TEXTSPLIT(A4," x ")</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5:C5">_xlfn.TEXTSPLIT(A5," x ")</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
         <v>4</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAF902-53BD-4AED-A5F2-A51FAD8E843D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="C1:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACEE116-72B3-4144-997E-56F742B5B50C}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6:C6">_xlfn.TEXTSPLIT(A6," x ")</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="str" cm="1">
+        <f t="array" ref="B7:C7">_xlfn.TEXTSPLIT(A7," x ")</f>
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3441862-0F45-4396-A6E3-3B342645CF0C}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -640,17 +895,63 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF399A8-B399-45E1-9717-4F1852C616D6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:C3">_xlfn.TEXTSPLIT(A1,"=",",")</f>
+        <v>Red</v>
+      </c>
+      <c r="C1" t="str">
+        <v>5</v>
+      </c>
+      <c r="E1" t="str" cm="1">
+        <f t="array" ref="E1:F3">_xlfn.TEXTSPLIT(A1,"=",",",,,"no definition")</f>
+        <v>Red</v>
+      </c>
+      <c r="F1" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="F2" t="str">
+        <v>no definition</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="str">
+        <v>Green</v>
+      </c>
+      <c r="C3" t="str">
+        <v>10</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Green</v>
+      </c>
+      <c r="F3" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
